--- a/DNN/dnn_info.xlsx
+++ b/DNN/dnn_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaeilLee\Desktop\FaultDetec._Analog_Circuit\DNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaeilLee\Desktop\CircuitFault_Detection\DNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271ECFC-CA79-412B-B7B4-3116E5129FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0582733-4521-4590-B5FF-E44EC70F639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5235" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{E0DF0803-88B6-4CFE-A92D-C2B1125F306D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82673B9A-CF7A-4BC7-850A-AA6B8C4A414D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -483,7 +483,50 @@
       <c r="D3">
         <v>128</v>
       </c>
+      <c r="E3">
+        <v>69.13</v>
+      </c>
       <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>512</v>
+      </c>
+      <c r="E5">
+        <v>60.83</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
